--- a/Resultados/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/Resultados/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_16ha_100ha_14%_12m_0_LM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/enrico_abreu_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_16ha_100ha_14%_12m_0_LM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="11_A8251B0E32D1D05672E7A2F0AFD39CEC9EE00DCF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58E4B2DF-3B01-49F3-8B84-D29AD8DC7D17}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="11_A8251B0E32D1D05672E7A2F0AFD39CEC9EE00DCF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53AE3814-BF87-4638-BD29-B4FE020A6B89}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados Geral" sheetId="33" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="70">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Resultado 28</t>
+  </si>
+  <si>
+    <t>ield_16ha_100ha_14%_12m_0_LM\</t>
   </si>
 </sst>
 </file>
@@ -5175,13 +5178,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7475BB6E-45E3-4DBD-85FB-7A243B47AF9C}">
   <sheetPr codeName="Planilha33"/>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -5209,8 +5212,11 @@
       <c r="J1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -5247,7 +5253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -5278,7 +5284,7 @@
         <v>1.8284</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -5309,7 +5315,7 @@
         <v>1.9727359999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -5340,7 +5346,7 @@
         <v>2.04792</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -5371,7 +5377,7 @@
         <v>2.0985119999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -5402,7 +5408,7 @@
         <v>2.1418240000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -5433,7 +5439,7 @@
         <v>2.1640320000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -5464,7 +5470,7 @@
         <v>2.171856</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -5495,7 +5501,7 @@
         <v>2.1826400000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -5526,7 +5532,7 @@
         <v>2.196288</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -5557,7 +5563,7 @@
         <v>2.1962079999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -5588,7 +5594,7 @@
         <v>2.1957119999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -5619,7 +5625,7 @@
         <v>2.1901920000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -5650,7 +5656,7 @@
         <v>2.190528</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -5681,7 +5687,7 @@
         <v>2.2189760000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -5712,7 +5718,7 @@
         <v>2.1842239999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -5743,7 +5749,7 @@
         <v>2.157216</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -5774,7 +5780,7 @@
         <v>2.1513439999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -5805,7 +5811,7 @@
         <v>2.1503839999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -5836,7 +5842,7 @@
         <v>2.147408</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -5867,7 +5873,7 @@
         <v>2.1281280000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -5898,7 +5904,7 @@
         <v>2.126096</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -5929,7 +5935,7 @@
         <v>2.1087359999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -5960,7 +5966,7 @@
         <v>2.105648</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -5991,7 +5997,7 @@
         <v>2.090144</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -6022,7 +6028,7 @@
         <v>2.0702240000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -6053,7 +6059,7 @@
         <v>2.0712000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -6084,7 +6090,7 @@
         <v>2.0547999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -6128,9 +6134,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6210,7 +6216,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6290,7 +6296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6370,7 +6376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6450,7 +6456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6530,7 +6536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6610,7 +6616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6690,7 +6696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6770,7 +6776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6850,7 +6856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6942,9 +6948,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7024,7 +7030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7104,7 +7110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7184,7 +7190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7264,7 +7270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7344,7 +7350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7424,7 +7430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7504,7 +7510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7584,7 +7590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -7664,7 +7670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -7744,7 +7750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -7824,7 +7830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -7904,7 +7910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -7984,7 +7990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8064,7 +8070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8144,7 +8150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8224,7 +8230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8304,7 +8310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8396,9 +8402,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8478,7 +8484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8570,9 +8576,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8652,7 +8658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8744,9 +8750,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8826,7 +8832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8906,7 +8912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8986,7 +8992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9066,7 +9072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -9146,7 +9152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9226,7 +9232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -9306,7 +9312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9386,7 +9392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -9478,9 +9484,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9560,7 +9566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9640,7 +9646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9720,7 +9726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9812,9 +9818,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9894,7 +9900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9974,7 +9980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10054,7 +10060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10134,7 +10140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10214,7 +10220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10294,7 +10300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10374,7 +10380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10454,7 +10460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -10534,7 +10540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -10614,7 +10620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -10694,7 +10700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -10774,7 +10780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -10854,7 +10860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -10946,9 +10952,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11028,7 +11034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11108,7 +11114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11188,7 +11194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11268,7 +11274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -11348,7 +11354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -11440,9 +11446,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11522,7 +11528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11602,7 +11608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11682,7 +11688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11762,7 +11768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -11842,7 +11848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -11922,7 +11928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -12002,7 +12008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -12082,7 +12088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -12162,7 +12168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -12242,7 +12248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -12334,9 +12340,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12416,7 +12422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -12508,9 +12514,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12590,7 +12596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -12670,7 +12676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -12750,7 +12756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -12830,7 +12836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -12910,7 +12916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -12990,7 +12996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -13070,7 +13076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -13162,9 +13168,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13244,7 +13250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -13324,7 +13330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -13416,9 +13422,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13498,7 +13504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -13590,9 +13596,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13672,7 +13678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -13752,7 +13758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -13832,7 +13838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -13912,7 +13918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -13992,7 +13998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -14072,7 +14078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -14164,9 +14170,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14246,7 +14252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -14338,9 +14344,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14420,7 +14426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -14500,7 +14506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -14580,7 +14586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -14660,7 +14666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -14740,7 +14746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -14820,7 +14826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -14900,7 +14906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -14980,7 +14986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -15060,7 +15066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -15140,7 +15146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -15220,7 +15226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -15312,9 +15318,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15394,7 +15400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -15474,7 +15480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -15554,7 +15560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -15634,7 +15640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -15714,7 +15720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -15794,7 +15800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -15874,7 +15880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -15954,7 +15960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -16034,7 +16040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -16114,7 +16120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -16194,7 +16200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -16274,7 +16280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -16354,7 +16360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -16434,7 +16440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -16514,7 +16520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -16606,9 +16612,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16688,7 +16694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -16768,7 +16774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -16848,7 +16854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -16940,9 +16946,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17022,7 +17028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -17102,7 +17108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17182,7 +17188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -17262,7 +17268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -17342,7 +17348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -17422,7 +17428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -17502,7 +17508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -17582,7 +17588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -17662,7 +17668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -17742,7 +17748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -17822,7 +17828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -17902,7 +17908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -17994,9 +18000,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18076,7 +18082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -18156,7 +18162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -18236,7 +18242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -18316,7 +18322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -18408,9 +18414,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18490,7 +18496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -18570,7 +18576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -18650,7 +18656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -18730,7 +18736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -18810,7 +18816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -18890,7 +18896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -18970,7 +18976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -19062,9 +19068,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19144,7 +19150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -19224,7 +19230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -19304,7 +19310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -19384,7 +19390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -19464,7 +19470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -19544,7 +19550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -19624,7 +19630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -19704,7 +19710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -19784,7 +19790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -19864,7 +19870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -19944,7 +19950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -20024,7 +20030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -20104,7 +20110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -20184,7 +20190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -20264,7 +20270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -20356,9 +20362,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20438,7 +20444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -20518,7 +20524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -20610,9 +20616,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20692,7 +20698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -20772,7 +20778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -20852,7 +20858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -20932,7 +20938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -21012,7 +21018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -21092,7 +21098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -21172,7 +21178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -21252,7 +21258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -21332,7 +21338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -21412,7 +21418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -21492,7 +21498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -21572,7 +21578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -21652,7 +21658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -21732,7 +21738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -21812,7 +21818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
@@ -21892,7 +21898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -21972,7 +21978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
@@ -22052,7 +22058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
@@ -22132,7 +22138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11</v>
       </c>
@@ -22212,7 +22218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -22292,7 +22298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>13</v>
       </c>
@@ -22372,7 +22378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>14</v>
       </c>
@@ -22452,7 +22458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -22532,7 +22538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -22612,7 +22618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -22692,7 +22698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -22772,7 +22778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -22852,7 +22858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -22932,7 +22938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -23012,7 +23018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -23092,7 +23098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -23172,7 +23178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -23252,7 +23258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -23332,7 +23338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10</v>
       </c>
@@ -23412,7 +23418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -23492,7 +23498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -23572,7 +23578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -23652,7 +23658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -23732,7 +23738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -23812,7 +23818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -23892,7 +23898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -23972,7 +23978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -24052,7 +24058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -24132,7 +24138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -24212,7 +24218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -24292,7 +24298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -24372,7 +24378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
@@ -24452,7 +24458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -24532,7 +24538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
@@ -24612,7 +24618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -24692,7 +24698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4</v>
       </c>
@@ -24772,7 +24778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5</v>
       </c>
@@ -24852,7 +24858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6</v>
       </c>
@@ -24932,7 +24938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>7</v>
       </c>
@@ -25012,7 +25018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>8</v>
       </c>
@@ -25092,7 +25098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0</v>
       </c>
@@ -25172,7 +25178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -25252,7 +25258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -25332,7 +25338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -25412,7 +25418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4</v>
       </c>
@@ -25492,7 +25498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5</v>
       </c>
@@ -25572,7 +25578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6</v>
       </c>
@@ -25652,7 +25658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7</v>
       </c>
@@ -25732,7 +25738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8</v>
       </c>
@@ -25812,7 +25818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>9</v>
       </c>
@@ -25892,7 +25898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>10</v>
       </c>
@@ -25972,7 +25978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>11</v>
       </c>
@@ -26052,7 +26058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>12</v>
       </c>
@@ -26132,7 +26138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>13</v>
       </c>
@@ -26212,7 +26218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>14</v>
       </c>
@@ -26292,7 +26298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>15</v>
       </c>
@@ -26372,7 +26378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>16</v>
       </c>
@@ -26452,7 +26458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0</v>
       </c>
@@ -26532,7 +26538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0</v>
       </c>
@@ -26612,7 +26618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0</v>
       </c>
@@ -26692,7 +26698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -26772,7 +26778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -26852,7 +26858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
@@ -26932,7 +26938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4</v>
       </c>
@@ -27012,7 +27018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5</v>
       </c>
@@ -27092,7 +27098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>6</v>
       </c>
@@ -27172,7 +27178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>7</v>
       </c>
@@ -27252,7 +27258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0</v>
       </c>
@@ -27332,7 +27338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -27412,7 +27418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2</v>
       </c>
@@ -27492,7 +27498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0</v>
       </c>
@@ -27572,7 +27578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -27652,7 +27658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -27732,7 +27738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -27812,7 +27818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4</v>
       </c>
@@ -27892,7 +27898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>5</v>
       </c>
@@ -27972,7 +27978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>6</v>
       </c>
@@ -28052,7 +28058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>7</v>
       </c>
@@ -28132,7 +28138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>8</v>
       </c>
@@ -28212,7 +28218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>9</v>
       </c>
@@ -28292,7 +28298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>10</v>
       </c>
@@ -28372,7 +28378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>11</v>
       </c>
@@ -28452,7 +28458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>12</v>
       </c>
@@ -28532,7 +28538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0</v>
       </c>
@@ -28612,7 +28618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -28692,7 +28698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2</v>
       </c>
@@ -28772,7 +28778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3</v>
       </c>
@@ -28852,7 +28858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>4</v>
       </c>
@@ -28932,7 +28938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>0</v>
       </c>
@@ -29012,7 +29018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -29092,7 +29098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2</v>
       </c>
@@ -29172,7 +29178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>3</v>
       </c>
@@ -29252,7 +29258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>4</v>
       </c>
@@ -29332,7 +29338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5</v>
       </c>
@@ -29412,7 +29418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>6</v>
       </c>
@@ -29492,7 +29498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>7</v>
       </c>
@@ -29572,7 +29578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>8</v>
       </c>
@@ -29652,7 +29658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>9</v>
       </c>
@@ -29732,7 +29738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>0</v>
       </c>
@@ -29812,7 +29818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>0</v>
       </c>
@@ -29892,7 +29898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -29972,7 +29978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>0</v>
       </c>
@@ -30052,7 +30058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>0</v>
       </c>
@@ -30132,7 +30138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -30212,7 +30218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2</v>
       </c>
@@ -30292,7 +30298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>3</v>
       </c>
@@ -30372,7 +30378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>4</v>
       </c>
@@ -30452,7 +30458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5</v>
       </c>
@@ -30532,7 +30538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>0</v>
       </c>
@@ -30612,7 +30618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>0</v>
       </c>
@@ -30692,7 +30698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -30772,7 +30778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2</v>
       </c>
@@ -30852,7 +30858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>3</v>
       </c>
@@ -30932,7 +30938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>4</v>
       </c>
@@ -31012,7 +31018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>5</v>
       </c>
@@ -31092,7 +31098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>6</v>
       </c>
@@ -31172,7 +31178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>7</v>
       </c>
@@ -31252,7 +31258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>8</v>
       </c>
@@ -31332,7 +31338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>9</v>
       </c>
@@ -31412,7 +31418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>10</v>
       </c>
@@ -31492,7 +31498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>0</v>
       </c>
@@ -31572,7 +31578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -31652,7 +31658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2</v>
       </c>
@@ -31732,7 +31738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>3</v>
       </c>
@@ -31812,7 +31818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>4</v>
       </c>
@@ -31892,7 +31898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>5</v>
       </c>
@@ -31972,7 +31978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>6</v>
       </c>
@@ -32052,7 +32058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>7</v>
       </c>
@@ -32132,7 +32138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>8</v>
       </c>
@@ -32212,7 +32218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>9</v>
       </c>
@@ -32292,7 +32298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>10</v>
       </c>
@@ -32372,7 +32378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>11</v>
       </c>
@@ -32452,7 +32458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>12</v>
       </c>
@@ -32532,7 +32538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>13</v>
       </c>
@@ -32612,7 +32618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>14</v>
       </c>
@@ -32692,7 +32698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>0</v>
       </c>
@@ -32772,7 +32778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
@@ -32852,7 +32858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2</v>
       </c>
@@ -32932,7 +32938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>0</v>
       </c>
@@ -33012,7 +33018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1</v>
       </c>
@@ -33092,7 +33098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2</v>
       </c>
@@ -33172,7 +33178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>3</v>
       </c>
@@ -33252,7 +33258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>4</v>
       </c>
@@ -33332,7 +33338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>5</v>
       </c>
@@ -33412,7 +33418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>6</v>
       </c>
@@ -33492,7 +33498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>7</v>
       </c>
@@ -33572,7 +33578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>8</v>
       </c>
@@ -33652,7 +33658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>9</v>
       </c>
@@ -33732,7 +33738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>10</v>
       </c>
@@ -33812,7 +33818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>11</v>
       </c>
@@ -33892,7 +33898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>0</v>
       </c>
@@ -33972,7 +33978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1</v>
       </c>
@@ -34052,7 +34058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2</v>
       </c>
@@ -34132,7 +34138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>3</v>
       </c>
@@ -34212,7 +34218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>0</v>
       </c>
@@ -34292,7 +34298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1</v>
       </c>
@@ -34372,7 +34378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2</v>
       </c>
@@ -34452,7 +34458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>3</v>
       </c>
@@ -34532,7 +34538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>4</v>
       </c>
@@ -34612,7 +34618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>5</v>
       </c>
@@ -34692,7 +34698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>6</v>
       </c>
@@ -34772,7 +34778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>0</v>
       </c>
@@ -34852,7 +34858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1</v>
       </c>
@@ -34944,24 +34950,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -34972,7 +34978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 1, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -34986,7 +34992,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 2, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35000,7 +35006,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 3, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35014,7 +35020,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 4, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35028,7 +35034,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 5, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35042,7 +35048,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 6, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35056,7 +35062,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 7, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35070,7 +35076,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 8, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35084,7 +35090,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 9, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35098,7 +35104,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 10, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35112,7 +35118,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 11, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35126,7 +35132,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 12, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35140,7 +35146,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 13, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35154,7 +35160,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 14, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35168,7 +35174,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 15, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35182,7 +35188,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 16, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35196,7 +35202,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 17, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35210,7 +35216,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 18, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35224,7 +35230,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 19, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35238,7 +35244,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 20, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35252,7 +35258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 21, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35266,7 +35272,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 22, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35280,7 +35286,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 23, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35294,7 +35300,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 24, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35308,7 +35314,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 25, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35322,7 +35328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 26, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35336,7 +35342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 27, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35350,7 +35356,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 28, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35364,7 +35370,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 29, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35378,7 +35384,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 30, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35392,7 +35398,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 31, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35406,7 +35412,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 32, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35420,7 +35426,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 33, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35434,7 +35440,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 34, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35448,7 +35454,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 35, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35462,7 +35468,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 36, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35476,7 +35482,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 37, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35490,7 +35496,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 38, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35504,7 +35510,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 39, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35518,7 +35524,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 40, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35532,7 +35538,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 41, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35546,7 +35552,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 42, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35560,7 +35566,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 43, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35574,7 +35580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 44, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35588,7 +35594,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 45, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35602,7 +35608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 46, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35616,7 +35622,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 47, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35630,7 +35636,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 48, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35644,7 +35650,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 49, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35658,7 +35664,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 50, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35672,7 +35678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 51, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35686,7 +35692,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 52, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35700,7 +35706,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 53, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35714,7 +35720,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 54, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35728,7 +35734,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 55, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35742,7 +35748,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 56, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35756,7 +35762,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 57, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35770,7 +35776,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 58, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35784,7 +35790,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 59, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35798,7 +35804,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 60, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35812,7 +35818,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 61, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35826,7 +35832,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 62, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35840,7 +35846,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 63, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35854,7 +35860,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 64, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35868,7 +35874,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 65, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35882,7 +35888,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 66, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35896,7 +35902,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 67, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35910,7 +35916,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 68, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35924,7 +35930,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 69, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35938,7 +35944,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 70, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35952,7 +35958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 71, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35966,7 +35972,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 72, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35980,7 +35986,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 73, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -35994,7 +36000,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 74, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36008,7 +36014,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 75, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36022,7 +36028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 76, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36036,7 +36042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 77, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36050,7 +36056,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 78, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36064,7 +36070,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 79, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36078,7 +36084,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 80, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36092,7 +36098,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 81, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36106,7 +36112,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 82, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36120,7 +36126,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 83, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36134,7 +36140,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 84, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36148,7 +36154,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 85, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36162,7 +36168,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 86, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36176,7 +36182,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 87, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36190,7 +36196,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 88, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36204,7 +36210,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 89, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36218,7 +36224,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 90, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36232,7 +36238,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 91, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36246,7 +36252,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 92, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36260,7 +36266,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 93, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36274,7 +36280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 94, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36288,7 +36294,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 95, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36302,7 +36308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 96, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36316,7 +36322,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 97, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36330,7 +36336,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 98, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36344,7 +36350,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 99, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36358,7 +36364,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 100, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36372,7 +36378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 101, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36386,7 +36392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 102, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36400,7 +36406,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 103, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36414,7 +36420,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 104, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36428,7 +36434,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 105, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36442,7 +36448,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 106, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36456,7 +36462,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 107, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36470,7 +36476,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 108, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36484,7 +36490,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 109, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36498,7 +36504,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 110, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36512,7 +36518,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 111, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36526,7 +36532,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 112, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36540,7 +36546,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 113, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36554,7 +36560,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 114, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36568,7 +36574,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 115, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36582,7 +36588,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 116, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36596,7 +36602,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 117, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36610,7 +36616,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 118, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36624,7 +36630,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 119, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36638,7 +36644,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 120, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36652,7 +36658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 121, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36666,7 +36672,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 122, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36680,7 +36686,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 123, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36694,7 +36700,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 124, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36708,7 +36714,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 125, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36722,7 +36728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 126, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36736,7 +36742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 127, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36750,7 +36756,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 128, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36764,7 +36770,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 129, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36778,7 +36784,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 130, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36792,7 +36798,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 131, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36806,7 +36812,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 132, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36820,7 +36826,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 133, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36834,7 +36840,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 134, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36848,7 +36854,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 135, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36862,7 +36868,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 136, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36876,7 +36882,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 137, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36890,7 +36896,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 138, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36904,7 +36910,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 139, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36918,7 +36924,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 140, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36932,7 +36938,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 141, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36946,7 +36952,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 142, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36960,7 +36966,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 143, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36974,7 +36980,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 144, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -36988,7 +36994,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 145, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37002,7 +37008,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 146, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37016,7 +37022,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 147, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37030,7 +37036,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 148, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37044,7 +37050,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 149, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37058,7 +37064,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 150, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37072,7 +37078,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 151, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37086,7 +37092,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 152, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37100,7 +37106,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 153, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37114,7 +37120,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 154, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37128,7 +37134,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 155, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37142,7 +37148,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 156, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37156,7 +37162,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 157, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37170,7 +37176,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 158, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37184,7 +37190,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 159, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37198,7 +37204,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 160, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37212,7 +37218,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 161, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37226,7 +37232,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 162, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37240,7 +37246,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 163, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37254,7 +37260,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 164, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37268,7 +37274,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 165, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37282,7 +37288,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 166, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37296,7 +37302,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 167, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37310,7 +37316,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 168, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37324,7 +37330,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 169, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37338,7 +37344,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 170, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37352,7 +37358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 171, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37366,7 +37372,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 172, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37380,7 +37386,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 173, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37394,7 +37400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 174, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37408,7 +37414,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 175, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37422,7 +37428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 176, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37436,7 +37442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 177, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37450,7 +37456,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$179, 178, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -37489,134 +37495,134 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -37633,9 +37639,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -37715,7 +37721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -37807,9 +37813,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -37889,7 +37895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -37969,7 +37975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -38049,7 +38055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -38129,7 +38135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -38209,7 +38215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -38289,7 +38295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -38369,7 +38375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -38449,7 +38455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -38529,7 +38535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -38609,7 +38615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -38689,7 +38695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -38781,9 +38787,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -38863,7 +38869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -38955,9 +38961,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -39037,7 +39043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -39129,9 +39135,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -39211,7 +39217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -39291,7 +39297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -39371,7 +39377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -39451,7 +39457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -39543,9 +39549,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -39625,7 +39631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -39705,7 +39711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -39785,7 +39791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -39865,7 +39871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -39945,7 +39951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -40025,7 +40031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>

--- a/Resultados/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/Resultados/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_16ha_100ha_14%_12m_0_LM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="11_A8251B0E32D1D05672E7A2F0AFD39CEC9EE00DCF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58E4B2DF-3B01-49F3-8B84-D29AD8DC7D17}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="11_A8251B0E32D1D05672E7A2F0AFD39CEC9EE00DCF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5CFEBFA-1C3D-4BC4-83B3-7A13AECC25A7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="70">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Resultado 28</t>
+  </si>
+  <si>
+    <t>ield_16ha_100ha_14%_12m_0_LM\</t>
   </si>
 </sst>
 </file>
@@ -5175,13 +5178,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7475BB6E-45E3-4DBD-85FB-7A243B47AF9C}">
   <sheetPr codeName="Planilha33"/>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -5209,8 +5212,11 @@
       <c r="J1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -5247,7 +5253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -5278,7 +5284,7 @@
         <v>1.8284</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -5309,7 +5315,7 @@
         <v>1.9727359999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -5340,7 +5346,7 @@
         <v>2.04792</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -5371,7 +5377,7 @@
         <v>2.0985119999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -5402,7 +5408,7 @@
         <v>2.1418240000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -5433,7 +5439,7 @@
         <v>2.1640320000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -5464,7 +5470,7 @@
         <v>2.171856</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -5495,7 +5501,7 @@
         <v>2.1826400000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -5526,7 +5532,7 @@
         <v>2.196288</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -5557,7 +5563,7 @@
         <v>2.1962079999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -5588,7 +5594,7 @@
         <v>2.1957119999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -5619,7 +5625,7 @@
         <v>2.1901920000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -5650,7 +5656,7 @@
         <v>2.190528</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
